--- a/va_facility_data_2025-02-20/Harrisburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harrisburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Harrisburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harrisburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf8fbfa82e0ab4830a6bcf0de4eabab5a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc6b8f0a27a1741db80e9b7af5a4a0258"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb013f394d5474c2fa8934c69a54c8b52"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfb59b4af204a4a16a762e4db3690ea4e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R550f9ca06e684aa6b162420b56db829e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0f1ae304c6124a63b2e26b4d782363be"/>
   </x:sheets>
 </x:workbook>
 </file>
